--- a/Test Cases _ ParaBank.xlsx
+++ b/Test Cases _ ParaBank.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gebra\OneDrive\Desktop\para-bank-restful-booker-testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A98DC94-85FA-4727-8B62-945F0FE2C3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCAD72F-619B-496D-83C0-454AEB42A7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{37256061-E2C9-42E7-ACD7-E41E548C7EED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="6" xr2:uid="{37256061-E2C9-42E7-ACD7-E41E548C7EED}"/>
   </bookViews>
   <sheets>
-    <sheet name="Log In" sheetId="6" r:id="rId1"/>
-    <sheet name="Open new account" sheetId="4" r:id="rId2"/>
-    <sheet name="Transfare Funds" sheetId="5" r:id="rId3"/>
-    <sheet name="Find Transactions" sheetId="2" r:id="rId4"/>
-    <sheet name="Update Contact Info" sheetId="3" r:id="rId5"/>
+    <sheet name="Login page" sheetId="6" r:id="rId1"/>
+    <sheet name="Forget login info" sheetId="7" r:id="rId2"/>
+    <sheet name="Open new account" sheetId="4" r:id="rId3"/>
+    <sheet name="Transfare Funds" sheetId="5" r:id="rId4"/>
+    <sheet name="Rejester Page" sheetId="8" r:id="rId5"/>
+    <sheet name="Find Transactions" sheetId="2" r:id="rId6"/>
+    <sheet name="Update Contact Info" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="508">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -94,9 +96,6 @@
   </si>
   <si>
     <t>FT07</t>
-  </si>
-  <si>
-    <t>Verify Account no selection</t>
   </si>
   <si>
     <t>Verify Transaction ID field</t>
@@ -1200,12 +1199,6 @@
     <t>Account Type Not Blank</t>
   </si>
   <si>
-    <t>1- Open Website
-2- Navigate to "Open New Account"
-3- Leave "Account Type" blank
-4- Press "Open New Account"</t>
-  </si>
-  <si>
     <t>Account Type:</t>
   </si>
   <si>
@@ -1216,12 +1209,6 @@
   </si>
   <si>
     <t>Valid Account Type Selection</t>
-  </si>
-  <si>
-    <t>1- Open Website
-2- Navigate to "Open New Account"
-3- Select a valid account type.
-4- Press "Open New Account"</t>
   </si>
   <si>
     <t>Account Type: Checking</t>
@@ -1260,12 +1247,6 @@
     <t xml:space="preserve">Invalid Account Type </t>
   </si>
   <si>
-    <t>1. Open website
-2. Enter invalid account type
-3. Enter valid deposited amount
-4. Submit form</t>
-  </si>
-  <si>
     <t>Account Type: Random Text</t>
   </si>
   <si>
@@ -1589,97 +1570,622 @@
     <t>LI05</t>
   </si>
   <si>
-    <t>LI06</t>
-  </si>
-  <si>
-    <t>LI07</t>
-  </si>
-  <si>
-    <t>LI08</t>
-  </si>
-  <si>
-    <t>LI09</t>
-  </si>
-  <si>
-    <t>LI10</t>
-  </si>
-  <si>
-    <t>LI11</t>
-  </si>
-  <si>
-    <t>LI12</t>
-  </si>
-  <si>
-    <t>LI13</t>
-  </si>
-  <si>
-    <t>LI14</t>
-  </si>
-  <si>
-    <t>LI15</t>
-  </si>
-  <si>
-    <t>LI16</t>
-  </si>
-  <si>
-    <t>LI17</t>
-  </si>
-  <si>
-    <t>LI18</t>
-  </si>
-  <si>
-    <t>LI19</t>
-  </si>
-  <si>
-    <t>LI20</t>
-  </si>
-  <si>
-    <t>LI21</t>
-  </si>
-  <si>
-    <t>LI22</t>
-  </si>
-  <si>
-    <t>LI23</t>
-  </si>
-  <si>
-    <t>LI24</t>
-  </si>
-  <si>
-    <t>LI25</t>
-  </si>
-  <si>
-    <t>LI26</t>
-  </si>
-  <si>
-    <t>LI27</t>
-  </si>
-  <si>
-    <t>LI28</t>
-  </si>
-  <si>
-    <t>LI29</t>
-  </si>
-  <si>
-    <t>LI30</t>
-  </si>
-  <si>
-    <t>LI31</t>
-  </si>
-  <si>
-    <t>LI32</t>
-  </si>
-  <si>
-    <t>LI33</t>
-  </si>
-  <si>
-    <t>LI34</t>
-  </si>
-  <si>
-    <t>LI35</t>
-  </si>
-  <si>
-    <t>LI36</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Verify Account no. selection</t>
+  </si>
+  <si>
+    <t>Account number selection can switch from number to another</t>
+  </si>
+  <si>
+    <t>Account: 46526</t>
+  </si>
+  <si>
+    <t>Verify user login</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> User should be able to log in with valid credentials</t>
+  </si>
+  <si>
+    <t>1. Open website via"https://demo.guru99.com/V1"
+2. Enter invalid account type
+3. Enter valid deposited amount
+4. Submit form</t>
+  </si>
+  <si>
+    <t>1- Open Website via"
+https://demo.guru99.com/V1"
+2- Enter Active Username
+3- Enter Matching Password
+4- Press Login Button
+5- Enter Valid Payees Account number field
+6- Press tab and move to next field</t>
+  </si>
+  <si>
+    <t>1- Open Website via "https://demo.guru99.com/V1"
+2- Navigate to "Open New Account"
+3- Select a valid account type.
+4- Press "Open New Account"</t>
+  </si>
+  <si>
+    <t>1- Open Website via "https://demo.guru99.com/V1"
+2- Navigate to "Open New Account"
+3- Leave "Account Type" blank
+4- Press "Open New Account"</t>
+  </si>
+  <si>
+    <t>Username: Active username
+Password: Matching  password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Ensure that only users with correct credentials can log in successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System redirects user to the home page successfully	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> User should not be able to log in with valid credentials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Open Website via "https://demo.guru99.com/V1"
+2- Go to login page
+3-Enter an not active username
+4-Enter matshing password
+5-press login button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Open Website via "https://demo.guru99.com/V1"
+2- Go to login page
+3-Enter an active username
+4-Enter matching password
+5-press login button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Open Website via "https://demo.guru99.com/V1"
+2- Go to login page
+3-Enter an active username
+4-Enter wrong password
+5-press login button </t>
+  </si>
+  <si>
+    <t>Username: Not active username
+Password: Matching  password</t>
+  </si>
+  <si>
+    <t>Username: Active username
+Password: Wrong  password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Ensure that users with uncorrect credentials can't log in successfully</t>
+  </si>
+  <si>
+    <t>System displays an error message indecating that "Username or password is invalid"</t>
+  </si>
+  <si>
+    <t>System displays an error message that "Username or password is invalid"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Open Website via "https://demo.guru99.com/V1"
+2- Go to login page
+3-press register button </t>
+  </si>
+  <si>
+    <t>Verify register button</t>
+  </si>
+  <si>
+    <t>System redirects user to the register page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Ensure that register button works successfully</t>
+  </si>
+  <si>
+    <t>System redirects user to the Customer Lookup page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Ensure that forget login info button works successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Open Website via "https://demo.guru99.com/V1"
+2- Go to login page
+3-press forget login info button </t>
+  </si>
+  <si>
+    <t>Verify forget login info button</t>
+  </si>
+  <si>
+    <t>FLI01</t>
+  </si>
+  <si>
+    <t>FLI02</t>
+  </si>
+  <si>
+    <t>FLI03</t>
+  </si>
+  <si>
+    <t>FLI04</t>
+  </si>
+  <si>
+    <t>FLI05</t>
+  </si>
+  <si>
+    <t>System redirects user to the account overview page</t>
+  </si>
+  <si>
+    <t>System accepts all field and doesn't display any error messages</t>
+  </si>
+  <si>
+    <t>System shows an error message indecating that"The customer information provided could not be found."</t>
+  </si>
+  <si>
+    <t>System shows an error message that"The customer information provided could not be found."</t>
+  </si>
+  <si>
+    <t>System accepts all field with an error message</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to "Forget login info" page
+3-Enter valid first name</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to "Forget login info" page
+3-Enter invalid first name</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to "Forget login info" page
+3-Leave the first name field blank</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to "Forget login info" page
+3-Leave the last name field blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to "Forget login info" page
+3-Enter valid last name field
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to "Forget login info" page
+3-Enter invalid last name field
+</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to "Forget login info" page
+3-Enter valid address field</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to "Forget login info" page
+3-Enter invalid address field</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to "Forget login info" page
+3-Leave address field blank</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to "Forget login info" page
+3-Enter invalid city field</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to "Forget login info" page
+3-Enter valid city field</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to "Forget login info" page
+3-Leave city field blank</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to "Forget login info" page
+3-Enter valid state field</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to "Forget login info" page
+3-Enter invalid state field</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to "Forget login info" page
+3-Leave state field blank</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to "Forget login info" page
+3-Enter valid zip code field</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to "Forget login info" page
+3-Enter invalid zip code field</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to "Forget login info" page
+3-Leave zip code field blank</t>
+  </si>
+  <si>
+    <t>Submit with valid first name, last name, address, city, state, zip code and invalid SSN number</t>
+  </si>
+  <si>
+    <t>First name:Valid
+Last name:Valid
+Address:Valid
+City:Valid
+State:Valid
+Zip code:Valid
+SSN: Invalid</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to "Forget login info" page
+3-Enter valid first name
+4-Enter valid last name
+5-Enter valid address
+6-Enter valid city
+7-Enter valid state
+8-Enter valid zip code
+9-Enter invalid SSN  number
+10-Press submit</t>
+  </si>
+  <si>
+    <t>Submit with valid first name, last name, address, city, state, zip code and SSN number</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to "Forget login info" page
+3-Enter valid first name
+4-Enter valid last name
+5-Enter valid address
+6-Enter valid city
+7-Enter valid state
+8-Enter valid zip code
+9-Enter valid SSN  number
+10-Press submit</t>
+  </si>
+  <si>
+    <t>First name:Valid
+Last name:Valid
+Address:Valid
+City:Valid
+State:Valid
+Zip code:Valid
+SSN:Valid</t>
+  </si>
+  <si>
+    <t>Submit with invalid first name and valid last name, address, city, state, zip code and  SSN number</t>
+  </si>
+  <si>
+    <t>First name:Invalid
+Last name:Valid
+Address:Valid
+City:Valid
+State:Valid
+Zip code:Valid
+SSN:Valid</t>
+  </si>
+  <si>
+    <t>Submit with valid first name, invalid last name and valid address, city, state, zip code and invalid SSN number</t>
+  </si>
+  <si>
+    <t>First name:Valid
+Last name:Invalid
+Address:Valid
+City:Valid
+State:Valid
+Zip code:Valid
+SSN:Valid</t>
+  </si>
+  <si>
+    <t>Submit with valid first name, last name, invalid address and valid city, state, zip code and SSN number</t>
+  </si>
+  <si>
+    <t>First name:Valid
+Last name:Valid
+Address:Invalid
+City:Valid
+State:Valid
+Zip code:Valid
+SSN:Valid</t>
+  </si>
+  <si>
+    <t>Submit with valid first name, last name, address and invalid city, valid state, zip code and SSN number</t>
+  </si>
+  <si>
+    <t>First name:Valid
+Last name:Valid
+Address:Valid
+City:Invalid
+State:Valid
+Zip code:Valid
+SSN:Valid</t>
+  </si>
+  <si>
+    <t>Submit with valid first name, last name, address, city, invalid state and valid zip code and SSN number</t>
+  </si>
+  <si>
+    <t>First name:Valid
+Last name:Valid
+Address:Valid
+City:Valid
+State:Invalid
+Zip code:Valid
+SSN:Valid</t>
+  </si>
+  <si>
+    <t>Submit with valid first name, last name, address, city, state , invalid zip code and valid SSN number</t>
+  </si>
+  <si>
+    <t>First name:Valid
+Last name:Valid
+Address:Valid
+City:Valid
+State:Valid
+Zip code:Invalid
+SSN:Valid</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to "Forget login info" page
+3-Enter valid first name
+4-Enter valid last name
+5-Enter valid address
+6-Enter valid city
+7-Enter valid state
+8-Enter invalid zip code
+9-Enter valid SSN  number
+10-Press submit</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to "Forget login info" page
+3-Enter valid first name
+4-Enter valid last name
+5-Enter valid address
+6-Enter valid city
+7-Enter invalid state
+8-Enter valid zip code
+9-Enter valid SSN  number
+10-Press submit</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to "Forget login info" page
+3-Enter valid first name
+4-Enter valid last name
+5-Enter valid address
+6-Enter invalid city
+7-Enter valid state
+8-Enter valid zip code
+9-Enter valid SSN  number
+10-Press submit</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to "Forget login info" page
+3-Enter valid first name
+4-Enter valid last name
+5-Enter invalid address
+6-Enter valid city
+7-Enter valid state
+8-Enter valid zip code
+9-Enter valid SSN  number
+10-Press submit</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to "Forget login info" page
+3-Enter valid first name
+4-Enter invalid last name
+5-Enter valid address
+6-Enter valid city
+7-Enter valid state
+8-Enter valid zip code
+9-Enter valid SSN  number
+10-Press submit</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Go to "Forget login info" page
+3-Enter invalid first name
+4-Enter valid last name
+5-Enter valid address
+6-Enter valid city
+7-Enter valid state
+8-Enter valid zip code
+9-Enter valid SSN  number
+10-Press submit</t>
+  </si>
+  <si>
+    <t>Verify SSN field</t>
+  </si>
+  <si>
+    <t>Valid SSN field</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Enter active username
+3-Enter matching password
+4-Press login button
+5-Enter valid SSN field
+6-Press tab to move to the next field</t>
+  </si>
+  <si>
+    <t>SSN: Valid</t>
+  </si>
+  <si>
+    <t>SSN field accepts numbers</t>
+  </si>
+  <si>
+    <t>System accepts the SSN field</t>
+  </si>
+  <si>
+    <t>Invalid SSN field</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Enter active username
+3-Enter matching password
+4-Press login button
+5-Enter invalid SSN field
+6-Press tab to move to the next field</t>
+  </si>
+  <si>
+    <t>SSN: Invalid</t>
+  </si>
+  <si>
+    <t>SSN field doesn't accept characters, special characters and spaces</t>
+  </si>
+  <si>
+    <t>System doesn't accept the SSN field</t>
+  </si>
+  <si>
+    <t>SSN field cannot be blank</t>
+  </si>
+  <si>
+    <t>1-Open website via "https://parabank.parasoft.com/parabank/findtrans.htm"
+2-Enter active username
+3-Enter matching password
+4-Press login button
+5-Leave SSN field blank
+6-Press tab to move to the next field</t>
+  </si>
+  <si>
+    <t>SSN: Blank</t>
+  </si>
+  <si>
+    <t>System should not allow the "SSN" field to be blank</t>
+  </si>
+  <si>
+    <t>System shows error message indicating that"SSN is required."</t>
+  </si>
+  <si>
+    <t>FLI06</t>
+  </si>
+  <si>
+    <t>FLI07</t>
+  </si>
+  <si>
+    <t>FLI08</t>
+  </si>
+  <si>
+    <t>FLI09</t>
+  </si>
+  <si>
+    <t>FLI10</t>
+  </si>
+  <si>
+    <t>FLI11</t>
+  </si>
+  <si>
+    <t>FLI12</t>
+  </si>
+  <si>
+    <t>FLI13</t>
+  </si>
+  <si>
+    <t>FLI14</t>
+  </si>
+  <si>
+    <t>FLI15</t>
+  </si>
+  <si>
+    <t>FLI16</t>
+  </si>
+  <si>
+    <t>FLI17</t>
+  </si>
+  <si>
+    <t>FLI18</t>
+  </si>
+  <si>
+    <t>FLI19</t>
+  </si>
+  <si>
+    <t>FLI20</t>
+  </si>
+  <si>
+    <t>FLI21</t>
+  </si>
+  <si>
+    <t>FLI22</t>
+  </si>
+  <si>
+    <t>FLI23</t>
+  </si>
+  <si>
+    <t>FLI24</t>
+  </si>
+  <si>
+    <t>FLI25</t>
+  </si>
+  <si>
+    <t>FLI26</t>
+  </si>
+  <si>
+    <t>FLI27</t>
+  </si>
+  <si>
+    <t>FLI28</t>
+  </si>
+  <si>
+    <t>FLI29</t>
+  </si>
+  <si>
+    <t>RP01</t>
+  </si>
+  <si>
+    <t>RP02</t>
+  </si>
+  <si>
+    <t>RP03</t>
+  </si>
+  <si>
+    <t>RP04</t>
+  </si>
+  <si>
+    <t>RP05</t>
+  </si>
+  <si>
+    <t>RP06</t>
+  </si>
+  <si>
+    <t>RP07</t>
+  </si>
+  <si>
+    <t>RP08</t>
+  </si>
+  <si>
+    <t>RP09</t>
+  </si>
+  <si>
+    <t>RP10</t>
+  </si>
+  <si>
+    <t>RP11</t>
+  </si>
+  <si>
+    <t>RP12</t>
+  </si>
+  <si>
+    <t>RP13</t>
+  </si>
+  <si>
+    <t>RP14</t>
+  </si>
+  <si>
+    <t>RP15</t>
   </si>
 </sst>
 </file>
@@ -1809,7 +2315,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1857,6 +2363,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2199,10 +2709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9709CC-42A4-487A-B23F-9A8D5A7B910F}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="68" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2237,187 +2747,145 @@
         <v>3</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="222" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="210.6">
+      <c r="A3" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="210.6">
+      <c r="A4" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="140.4">
+      <c r="A5" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="140.4">
+      <c r="A6" s="6" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
+      <c r="B6" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="C11" t="s">
         <v>371</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -2427,11 +2895,859 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BDE044-BDBB-46CA-99C0-3FEC862C948C}">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" zoomScale="45" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="9" width="50.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="22.8">
+      <c r="A1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="117">
+      <c r="A2" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="117">
+      <c r="A3" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="117">
+      <c r="A4" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="140.4">
+      <c r="A5" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="140.4">
+      <c r="A6" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="117">
+      <c r="A7" s="19" t="s">
+        <v>469</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="117">
+      <c r="A8" s="19" t="s">
+        <v>470</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="117">
+      <c r="A9" s="19" t="s">
+        <v>471</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="117">
+      <c r="A10" s="19" t="s">
+        <v>472</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="117">
+      <c r="A11" s="19" t="s">
+        <v>473</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="117">
+      <c r="A12" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="117">
+      <c r="A13" s="19" t="s">
+        <v>475</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="117">
+      <c r="A14" s="19" t="s">
+        <v>476</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="117">
+      <c r="A15" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="117">
+      <c r="A16" s="19" t="s">
+        <v>478</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="117">
+      <c r="A17" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="117">
+      <c r="A18" s="19" t="s">
+        <v>480</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="117">
+      <c r="A19" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="187.2">
+      <c r="A20" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="187.2">
+      <c r="A21" s="19" t="s">
+        <v>483</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="187.2">
+      <c r="A22" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="280.8">
+      <c r="A23" s="19" t="s">
+        <v>485</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="280.8">
+      <c r="A24" s="19" t="s">
+        <v>486</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="280.8">
+      <c r="A25" s="19" t="s">
+        <v>487</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="280.8">
+      <c r="A26" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="280.8">
+      <c r="A27" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="280.8">
+      <c r="A28" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="280.8">
+      <c r="A29" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="280.8">
+      <c r="A30" s="19" t="s">
+        <v>492</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5AAED4-310D-40B8-9CB3-AAD6BF0862AE}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView zoomScale="41" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="A5" zoomScale="63" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2471,60 +3787,60 @@
         <v>3</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="99" customHeight="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="117.6" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="F2" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>276</v>
-      </c>
       <c r="H2" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="95.4" customHeight="1">
+    <row r="3" spans="1:9" ht="118.8" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="G3" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>281</v>
-      </c>
       <c r="H3" s="6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>5</v>
@@ -2532,25 +3848,25 @@
     </row>
     <row r="4" spans="1:9" ht="168.6" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>283</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>286</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>5</v>
@@ -2558,26 +3874,26 @@
     </row>
     <row r="5" spans="1:9" ht="103.2" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>291</v>
-      </c>
       <c r="H5" s="6" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>5</v>
@@ -2585,28 +3901,28 @@
     </row>
     <row r="6" spans="1:9" ht="108" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>296</v>
-      </c>
       <c r="G6" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>5</v>
@@ -2614,26 +3930,26 @@
     </row>
     <row r="7" spans="1:9" ht="121.2" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>301</v>
-      </c>
       <c r="H7" s="6" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>5</v>
@@ -2641,26 +3957,26 @@
     </row>
     <row r="8" spans="1:9" ht="111" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>5</v>
@@ -2675,12 +3991,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C438C8-D500-4E97-95E5-4D0EBC10FD04}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView zoomScale="57" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView zoomScale="34" workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2717,33 +4033,33 @@
         <v>3</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="163.80000000000001">
       <c r="A2" s="6" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>318</v>
-      </c>
       <c r="H2" s="6" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>5</v>
@@ -2751,26 +4067,26 @@
     </row>
     <row r="3" spans="1:9" ht="163.80000000000001">
       <c r="A3" s="6" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>323</v>
-      </c>
       <c r="H3" s="6" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>5</v>
@@ -2778,25 +4094,25 @@
     </row>
     <row r="4" spans="1:9" ht="210.6">
       <c r="A4" s="6" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>283</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>286</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="8" t="s">
@@ -2805,28 +4121,28 @@
     </row>
     <row r="5" spans="1:9" ht="117">
       <c r="A5" s="6" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>329</v>
-      </c>
       <c r="H5" s="6" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>5</v>
@@ -2834,26 +4150,26 @@
     </row>
     <row r="6" spans="1:9" ht="163.80000000000001">
       <c r="A6" s="6" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>334</v>
-      </c>
       <c r="H6" s="6" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>5</v>
@@ -2861,28 +4177,28 @@
     </row>
     <row r="7" spans="1:9" ht="117">
       <c r="A7" s="6" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>5</v>
@@ -2890,26 +4206,26 @@
     </row>
     <row r="8" spans="1:9" ht="117">
       <c r="A8" s="6" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>343</v>
-      </c>
       <c r="H8" s="6" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>5</v>
@@ -2917,28 +4233,28 @@
     </row>
     <row r="9" spans="1:9" ht="210.6">
       <c r="A9" s="6" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="H9" s="6" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>5</v>
@@ -2946,51 +4262,51 @@
     </row>
     <row r="10" spans="1:9" ht="210.6">
       <c r="A10" s="6" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="H10" s="6" t="s">
         <v>351</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>355</v>
       </c>
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9" ht="234">
       <c r="A11" s="6" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="I11" s="6"/>
     </row>
@@ -3000,12 +4316,135 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBAB8CE-C328-4ADA-8484-1476917474F0}">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="9" width="55.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="22.8">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>507</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9C7252-4881-48A7-AC44-495FDA326DF3}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView zoomScale="63" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView topLeftCell="C1" zoomScale="72" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3047,7 +4486,7 @@
         <v>3</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="257.39999999999998">
@@ -3055,32 +4494,42 @@
         <v>11</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>18</v>
+        <v>372</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="6" t="s">
         <v>253</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>254</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" ht="23.4">
+        <v>254</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="257.39999999999998">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="12"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>374</v>
+      </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -3091,25 +4540,25 @@
         <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="11" t="s">
+      <c r="G4" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>5</v>
@@ -3121,22 +4570,22 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="F5" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>6</v>
@@ -3148,22 +4597,22 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="F6" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>5</v>
@@ -3174,25 +4623,25 @@
         <v>16</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>37</v>
-      </c>
       <c r="G7" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>6</v>
@@ -3204,22 +4653,22 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>40</v>
-      </c>
       <c r="G8" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>6</v>
@@ -3227,26 +4676,26 @@
     </row>
     <row r="9" spans="1:9" ht="210.6">
       <c r="A9" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="E9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="F9" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>5</v>
@@ -3254,28 +4703,28 @@
     </row>
     <row r="10" spans="1:9" ht="212.4" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="D10" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>6</v>
@@ -3283,26 +4732,26 @@
     </row>
     <row r="11" spans="1:9" ht="237.6" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>5</v>
@@ -3310,26 +4759,26 @@
     </row>
     <row r="12" spans="1:9" ht="234">
       <c r="A12" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>5</v>
@@ -3337,28 +4786,28 @@
     </row>
     <row r="13" spans="1:9" ht="210.6">
       <c r="A13" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>5</v>
@@ -3366,26 +4815,26 @@
     </row>
     <row r="14" spans="1:9" ht="210.6">
       <c r="A14" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>5</v>
@@ -3393,26 +4842,26 @@
     </row>
     <row r="15" spans="1:9" ht="210.6">
       <c r="A15" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>6</v>
@@ -3440,18 +4889,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D666D422-2C71-47D6-B41B-03F61BC2A996}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="43" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="43" workbookViewId="0">
+      <selection activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="199.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="21.77734375" customWidth="1"/>
-    <col min="2" max="2" width="26.77734375" customWidth="1"/>
+    <col min="2" max="2" width="43.77734375" customWidth="1"/>
     <col min="3" max="3" width="34.21875" customWidth="1"/>
     <col min="4" max="4" width="49.109375" customWidth="1"/>
     <col min="5" max="5" width="31.6640625" customWidth="1"/>
@@ -3492,28 +4941,28 @@
     </row>
     <row r="2" spans="1:9" ht="229.95" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>89</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>5</v>
@@ -3521,26 +4970,26 @@
     </row>
     <row r="3" spans="1:9" ht="229.95" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>6</v>
@@ -3548,26 +4997,26 @@
     </row>
     <row r="4" spans="1:9" ht="229.95" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>98</v>
-      </c>
       <c r="G4" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>5</v>
@@ -3575,28 +5024,28 @@
     </row>
     <row r="5" spans="1:9" ht="229.95" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>108</v>
-      </c>
       <c r="H5" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>5</v>
@@ -3604,26 +5053,26 @@
     </row>
     <row r="6" spans="1:9" ht="229.95" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>113</v>
-      </c>
       <c r="H6" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>6</v>
@@ -3631,26 +5080,26 @@
     </row>
     <row r="7" spans="1:9" ht="229.95" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>118</v>
-      </c>
       <c r="H7" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>5</v>
@@ -3658,28 +5107,28 @@
     </row>
     <row r="8" spans="1:9" ht="229.95" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>123</v>
-      </c>
       <c r="H8" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>5</v>
@@ -3687,26 +5136,26 @@
     </row>
     <row r="9" spans="1:9" ht="229.95" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>128</v>
-      </c>
       <c r="H9" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>6</v>
@@ -3714,26 +5163,26 @@
     </row>
     <row r="10" spans="1:9" ht="229.95" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>133</v>
-      </c>
       <c r="H10" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>5</v>
@@ -3741,28 +5190,28 @@
     </row>
     <row r="11" spans="1:9" ht="229.95" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="G11" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>138</v>
-      </c>
       <c r="H11" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>5</v>
@@ -3770,26 +5219,26 @@
     </row>
     <row r="12" spans="1:9" ht="229.95" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>143</v>
-      </c>
       <c r="H12" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>6</v>
@@ -3797,26 +5246,26 @@
     </row>
     <row r="13" spans="1:9" ht="229.95" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>148</v>
-      </c>
       <c r="H13" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>5</v>
@@ -3824,28 +5273,28 @@
     </row>
     <row r="14" spans="1:9" ht="229.95" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="G14" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>153</v>
-      </c>
       <c r="H14" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>5</v>
@@ -3853,26 +5302,26 @@
     </row>
     <row r="15" spans="1:9" ht="229.95" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E15" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="G15" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>158</v>
-      </c>
       <c r="H15" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>6</v>
@@ -3880,26 +5329,26 @@
     </row>
     <row r="16" spans="1:9" ht="229.95" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="E16" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="G16" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>163</v>
-      </c>
       <c r="H16" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>5</v>
@@ -3907,28 +5356,28 @@
     </row>
     <row r="17" spans="1:9" ht="229.95" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C17" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>167</v>
-      </c>
       <c r="H17" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>5</v>
@@ -3936,26 +5385,26 @@
     </row>
     <row r="18" spans="1:9" ht="229.95" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="E18" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>171</v>
-      </c>
       <c r="H18" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>6</v>
@@ -3963,26 +5412,26 @@
     </row>
     <row r="19" spans="1:9" ht="229.95" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="E19" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="G19" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>176</v>
-      </c>
       <c r="H19" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>5</v>
@@ -3990,28 +5439,28 @@
     </row>
     <row r="20" spans="1:9" ht="229.95" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C20" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="E20" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="F20" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="G20" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>183</v>
-      </c>
       <c r="H20" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>5</v>
@@ -4019,26 +5468,26 @@
     </row>
     <row r="21" spans="1:9" ht="229.95" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="E21" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="F21" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="G21" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>188</v>
-      </c>
       <c r="H21" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>6</v>
@@ -4046,26 +5495,26 @@
     </row>
     <row r="22" spans="1:9" ht="229.95" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="E22" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="G22" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="H22" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>5</v>
@@ -4073,28 +5522,28 @@
     </row>
     <row r="23" spans="1:9" ht="334.8" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C23" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="E23" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="F23" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>214</v>
-      </c>
       <c r="H23" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>5</v>
@@ -4102,26 +5551,26 @@
     </row>
     <row r="24" spans="1:9" ht="339" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E24" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="G24" s="6" t="s">
+      <c r="H24" s="6" t="s">
         <v>241</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>242</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>6</v>
@@ -4129,26 +5578,26 @@
     </row>
     <row r="25" spans="1:9" ht="337.2" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I25" s="9" t="s">
         <v>6</v>
@@ -4156,26 +5605,26 @@
     </row>
     <row r="26" spans="1:9" ht="336" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>6</v>
@@ -4183,26 +5632,26 @@
     </row>
     <row r="27" spans="1:9" ht="338.4" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>6</v>
@@ -4210,26 +5659,26 @@
     </row>
     <row r="28" spans="1:9" ht="346.2" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>6</v>
@@ -4237,26 +5686,26 @@
     </row>
     <row r="29" spans="1:9" ht="342" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I29" s="9" t="s">
         <v>6</v>
@@ -4264,26 +5713,26 @@
     </row>
     <row r="30" spans="1:9" ht="334.8" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D30" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>234</v>
-      </c>
       <c r="F30" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>6</v>
